--- a/performance_campagne.xlsx
+++ b/performance_campagne.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jakala\ANALYTICS_SPACE\JTALK\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gogliom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD5D289-BECC-499D-BA17-8BA0B38641AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DDCAD-7ED3-464D-96E4-921FBCFD2E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BBEB1FC5-0FDD-49E6-BC3E-BE9C066B5772}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBEB1FC5-0FDD-49E6-BC3E-BE9C066B5772}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>BOOSTER</t>
   </si>
   <si>
-    <t>COLORI</t>
-  </si>
-  <si>
     <t>CASE</t>
   </si>
   <si>
@@ -323,6 +320,9 @@
   </si>
   <si>
     <t>Rientra alla grande: questo ti piacerà!🥰</t>
+  </si>
+  <si>
+    <t>URGENZA</t>
   </si>
 </sst>
 </file>
@@ -704,33 +704,33 @@
   <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -766,21 +766,21 @@
         <v>50</v>
       </c>
       <c r="N1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -813,12 +813,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -857,12 +857,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -901,12 +901,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -945,12 +945,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -989,12 +989,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1033,12 +1033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1077,18 +1077,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>54</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1121,12 +1121,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1165,12 +1165,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1209,12 +1209,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1253,12 +1253,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1297,12 +1297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="2">
         <v>0.19270000000000001</v>
@@ -1341,12 +1341,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1355,7 +1355,7 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15" s="2">
         <v>0.1875</v>
@@ -1385,18 +1385,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>54</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
@@ -1429,12 +1429,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -1443,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2">
         <v>0.2291</v>
@@ -1473,12 +1473,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1487,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2">
         <v>0.21440000000000001</v>
@@ -1517,12 +1517,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -1561,12 +1561,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -1605,12 +1605,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1649,12 +1649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1693,21 +1693,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="2">
         <v>0.153</v>
@@ -1737,21 +1737,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2">
         <v>0.161</v>
@@ -1781,21 +1781,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2">
         <v>0.16200000000000001</v>
@@ -1825,21 +1825,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="2">
         <v>0.159</v>
@@ -1869,21 +1869,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="2">
         <v>0.14899999999999999</v>
@@ -1913,21 +1913,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F28" s="2">
         <v>0.16200000000000001</v>
@@ -1957,18 +1957,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E29" t="s">
         <v>32</v>
@@ -2001,12 +2001,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -2045,12 +2045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2089,12 +2089,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -2103,7 +2103,7 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="2">
         <v>0.1832</v>
@@ -2133,12 +2133,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -2147,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2">
         <v>0.22120000000000001</v>
@@ -2177,12 +2177,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2221,12 +2221,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2265,21 +2265,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F36" s="2">
         <v>0.15315999999999999</v>
@@ -2309,12 +2309,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -2323,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="2">
         <v>0.20336000000000001</v>
@@ -2353,12 +2353,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -2397,12 +2397,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -2441,12 +2441,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -2485,12 +2485,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -2529,12 +2529,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -2573,18 +2573,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43">
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E43" t="s">
         <v>35</v>
@@ -2617,12 +2617,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -2631,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F44" s="2">
         <v>0.19700000000000001</v>
@@ -2661,12 +2661,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -2705,12 +2705,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -2749,12 +2749,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -2793,12 +2793,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -2837,12 +2837,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -2851,7 +2851,7 @@
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" s="2">
         <v>0.2014</v>
@@ -2881,19 +2881,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F55" s="1"/>
     </row>
   </sheetData>
@@ -2913,6 +2913,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C608BE262B86BD47AEF56AB520999412" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="39a52548886913e2829dbc4e7bcf0ddd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8ad3f8bb-af4d-4ad1-930b-42fcd0c3b5d4" xmlns:ns4="1f1053a7-82ce-4a3e-bcb0-5f669e7e474b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d76b952ecdd516dbc6f091007fac9c01" ns3:_="" ns4:_="">
     <xsd:import namespace="8ad3f8bb-af4d-4ad1-930b-42fcd0c3b5d4"/>
@@ -3115,12 +3121,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC50D08F-9D02-4A4F-A7D6-BEC056BBF3C5}">
   <ds:schemaRefs>
@@ -3130,6 +3130,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE1C716-0773-4A39-995D-25096E5A68CD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1f1053a7-82ce-4a3e-bcb0-5f669e7e474b"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8ad3f8bb-af4d-4ad1-930b-42fcd0c3b5d4"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E46FC5B6-BB39-4F66-8CF7-9E6FFD1F1BB8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3146,21 +3163,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE1C716-0773-4A39-995D-25096E5A68CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1f1053a7-82ce-4a3e-bcb0-5f669e7e474b"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="8ad3f8bb-af4d-4ad1-930b-42fcd0c3b5d4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/performance_campagne.xlsx
+++ b/performance_campagne.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gogliom\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95DDCAD-7ED3-464D-96E4-921FBCFD2E26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274421F8-6660-4A2B-9F73-167F6FB10EAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BBEB1FC5-0FDD-49E6-BC3E-BE9C066B5772}"/>
   </bookViews>
@@ -703,8 +703,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B017125D-2B6F-4542-B5BE-CF30ECAFA39C}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <v>5</v>
@@ -842,16 +845,16 @@
         <v>4</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -886,19 +889,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -921,28 +924,28 @@
         <v>0.1991</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -980,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6">
         <v>2</v>
@@ -1009,13 +1012,13 @@
         <v>0.18509999999999999</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1024,13 +1027,13 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>3</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1059,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1068,10 +1071,10 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>4</v>
@@ -1106,19 +1109,19 @@
         <v>5</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1141,10 +1144,10 @@
         <v>0.21460000000000001</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -1159,10 +1162,10 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1185,28 +1188,28 @@
         <v>0.191</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1232,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I12">
         <v>4</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1247,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>5</v>
@@ -1276,25 +1279,25 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>3</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1317,7 +1320,7 @@
         <v>0.19270000000000001</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1326,19 +1329,19 @@
         <v>4</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>3</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1364,25 +1367,25 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>5</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1411,22 +1414,22 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>3</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -1449,16 +1452,16 @@
         <v>0.2291</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1467,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -1493,28 +1496,28 @@
         <v>0.21440000000000001</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -1537,19 +1540,19 @@
         <v>0.21429999999999999</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -1558,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1581,28 +1584,28 @@
         <v>0.20680000000000001</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>0</v>
       </c>
-      <c r="I20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>4</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
       <c r="M20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -1628,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -1637,16 +1640,16 @@
         <v>3</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
@@ -1672,22 +1675,22 @@
         <v>3</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N22">
         <v>5</v>
@@ -1713,16 +1716,16 @@
         <v>0.153</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1731,10 +1734,10 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1760,25 +1763,25 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1807,13 +1810,13 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25">
         <v>4</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -1822,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -1845,25 +1848,25 @@
         <v>0.159</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1892,10 +1895,10 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -1904,10 +1907,10 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1933,28 +1936,28 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>2</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1980,22 +1983,22 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -2021,13 +2024,13 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -2036,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2065,28 +2068,28 @@
         <v>0.17224</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2109,28 +2112,28 @@
         <v>0.1832</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2153,13 +2156,13 @@
         <v>0.22120000000000001</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -2168,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2200,10 +2203,10 @@
         <v>4</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>4</v>
@@ -2218,7 +2221,7 @@
         <v>2</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2241,25 +2244,25 @@
         <v>0.18225</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -2285,28 +2288,28 @@
         <v>0.15315999999999999</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36">
         <v>2</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -2332,25 +2335,25 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>2</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2373,28 +2376,28 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2417,28 +2420,28 @@
         <v>0.2074</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M39">
         <v>2</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -2461,25 +2464,25 @@
         <v>0.17316000000000001</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>3</v>
       </c>
       <c r="J40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40">
         <v>3</v>
@@ -2505,19 +2508,19 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L41">
         <v>1</v>
@@ -2552,19 +2555,19 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>3</v>
       </c>
       <c r="J42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -2593,28 +2596,28 @@
         <v>0.17441999999999999</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2637,13 +2640,13 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -2652,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44">
         <v>4</v>
@@ -2681,22 +2684,22 @@
         <v>0.22159999999999999</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -2725,28 +2728,28 @@
         <v>0.23019999999999999</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2769,28 +2772,28 @@
         <v>0.18340000000000001</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47">
         <v>4</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2813,28 +2816,28 @@
         <v>0.22600000000000001</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
@@ -2857,28 +2860,28 @@
         <v>0.2014</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49">
         <v>4</v>
       </c>
       <c r="N49">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
